--- a/urls.xlsx
+++ b/urls.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/herbert/Library/CloudStorage/Dropbox/aDisk/yfcf-site/yfcf-site.github.io/barn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/herbert/Library/CloudStorage/Dropbox/aDisk/yfcf-site/yfcf-site.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FF9DEC-B8E4-694E-9FAB-EBC5F8D7FA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A84782D-0E6C-534F-B06E-2A76D16FDACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{8E97D6DA-1012-8849-AB4A-86B743B009B3}"/>
+    <workbookView xWindow="13460" yWindow="1100" windowWidth="28040" windowHeight="17200" xr2:uid="{8E97D6DA-1012-8849-AB4A-86B743B009B3}"/>
   </bookViews>
   <sheets>
     <sheet name="mementos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="243">
   <si>
     <t>HTML</t>
   </si>
@@ -45,177 +45,93 @@
     <t>yfcf</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990220153326im_/http://dewey.rug.ac.be/barn/tex/yfcf.html</t>
-  </si>
-  <si>
     <t>audio</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990222072856im_/http://dewey.rug.ac.be/barn/tex/audio.html</t>
-  </si>
-  <si>
     <t>video</t>
   </si>
   <si>
     <t>perfo</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990220082926im_/http://dewey.rug.ac.be/barn/tex/perfo.html</t>
-  </si>
-  <si>
     <t>lyric</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990219231714im_/http://dewey.rug.ac.be/barn/tex/lyric.html</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990220013212im_/http://dewey.rug.ac.be/barn/tex/max.html</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990220133854im_/http://dewey.rug.ac.be/barn/tex/work.html</t>
-  </si>
-  <si>
     <t>yfcfprom</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990220162412im_/http://dewey.rug.ac.be/barn/tex/yfcfprom.html</t>
-  </si>
-  <si>
     <t>news</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990220051455im_/http://dewey.rug.ac.be/barn/tex/news.html</t>
-  </si>
-  <si>
     <t>neckprom</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990501223642im_/http://dewey.rug.ac.be/barn/tex/neckprom.html</t>
-  </si>
-  <si>
     <t>gold</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990501210627im_/http://dewey.rug.ac.be/barn/tex/gold.html</t>
-  </si>
-  <si>
     <t>claemit</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990428110805im_/http://dewey.rug.ac.be/barn/tex/claemit.html</t>
-  </si>
-  <si>
     <t>theresa</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990501233653im_/http://dewey.rug.ac.be/barn/tex/theresa.html</t>
-  </si>
-  <si>
     <t>nuns</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990501230557im_/http://dewey.rug.ac.be/barn/tex/nuns.html</t>
-  </si>
-  <si>
     <t>fiat</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990501204011im_/http://dewey.rug.ac.be/barn/tex/fiat.html</t>
-  </si>
-  <si>
     <t>dildo</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990501200351im_/http://dewey.rug.ac.be/barn/tex/dildo.html</t>
-  </si>
-  <si>
     <t>meno</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990501221035im_/http://dewey.rug.ac.be/barn/tex/meno.html</t>
-  </si>
-  <si>
     <t>herma</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990501213417im_/http://dewey.rug.ac.be/barn/tex/herma.html</t>
-  </si>
-  <si>
     <t>doppler</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990501202926im_/http://dewey.rug.ac.be/barn/tex/doppler.html</t>
-  </si>
-  <si>
     <t>piet</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990220101839im_/http://dewey.rug.ac.be/barn/tex/piet.html</t>
-  </si>
-  <si>
     <t>cv</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19990428113621im_/http://dewey.rug.ac.be/barn/tex/cv.html</t>
-  </si>
-  <si>
-    <t>\barn</t>
-  </si>
-  <si>
     <t>beurs</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19991104064655im_/http://dewey.rug.ac.be/barn/tex/beurs.html</t>
-  </si>
-  <si>
     <t>sputnick</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19991104064845im_/http://dewey.rug.ac.be/barn/tex/sputnick.html</t>
-  </si>
-  <si>
     <t>\YFCF</t>
   </si>
   <si>
     <t>SonicYFCF</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19991104065234im_/http://dewey.rug.ac.be/YFCF/SonicYFCF.html</t>
-  </si>
-  <si>
     <t>HotSonic</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19991104070723im_/http://dewey.rug.ac.be/YFCF/UnploughCD.html</t>
-  </si>
-  <si>
     <t>UnploughCD</t>
   </si>
   <si>
     <t>https://web.archive.org/web/19970719105949/http://dewey.rug.ac.be/YFCF/HotSonic.html</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19970715175954im_/http://dewey.rug.ac.be/barn/tex/video.html</t>
-  </si>
-  <si>
     <t>bird</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19970719105040im_/http://dewey.rug.ac.be/barn/tex/bird.html</t>
-  </si>
-  <si>
     <t>goodegg</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/19970719105100im_/http://dewey.rug.ac.be/barn/tex/goodegg.html</t>
-  </si>
-  <si>
     <t>AUDIO</t>
   </si>
   <si>
@@ -301,13 +217,562 @@
   </si>
   <si>
     <t>f-room.mov missing</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715175941/http://dewey.rug.ac.be/barn/tex/audio.html</t>
+  </si>
+  <si>
+    <t>date check</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715175954/http://dewey.rug.ac.be/barn/tex/video.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715180011/http://dewey.rug.ac.be/barn/tex/perfo.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715175729/http://dewey.rug.ac.be/barn/tex/yfcf.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715180027/http://dewey.rug.ac.be/barn/tex/lyric.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715180039/http://dewey.rug.ac.be/barn/tex/max.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19980111051944/http://dewey.rug.ac.be/barn/tex/work.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715180121/http://dewey.rug.ac.be/barn/tex/yfcfprom.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104738/http://dewey.rug.ac.be/barn/tex/news.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715201553/http://dewey.rug.ac.be/barn/tex/neckprom.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104902/http://dewey.rug.ac.be/barn/tex/gold.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104755/http://dewey.rug.ac.be/barn/tex/claemit.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104919/http://dewey.rug.ac.be/barn/tex/theresa.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104928/http://dewey.rug.ac.be/barn/tex/nuns.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104942/http://dewey.rug.ac.be/barn/tex/fiat.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104958/http://dewey.rug.ac.be/barn/tex/dildo.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105006/http://dewey.rug.ac.be/barn/tex/meno.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105017/http://dewey.rug.ac.be/barn/tex/herma.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105050/http://dewey.rug.ac.be/barn/tex/doppler.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715192412/http://dewey.rug.ac.be/barn/tex/piet.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105858/http://dewey.rug.ac.be/barn/tex/cv.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104835/http://dewey.rug.ac.be/barn/tex/beurs.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104827/http://dewey.rug.ac.be/barn/tex/sputnick.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105040/http://dewey.rug.ac.be/barn/tex/bird.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105100/http://dewey.rug.ac.be/barn/tex/goodegg.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719115907/http://dewey.rug.ac.be/YFCF/SonicYFCF.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715180148/http://dewey.rug.ac.be/YFCF/UnploughCD.html</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>f-spaceex</t>
+  </si>
+  <si>
+    <t>f-advances</t>
+  </si>
+  <si>
+    <t>f-news</t>
+  </si>
+  <si>
+    <t>f-pong</t>
+  </si>
+  <si>
+    <t>f-winterwalk</t>
+  </si>
+  <si>
+    <t>f-room</t>
+  </si>
+  <si>
+    <t>f-goodegg</t>
+  </si>
+  <si>
+    <t>f-bird</t>
+  </si>
+  <si>
+    <t>f-andove</t>
+  </si>
+  <si>
+    <t>f-tartaar</t>
+  </si>
+  <si>
+    <t>f-hammer</t>
+  </si>
+  <si>
+    <t>f-traffic</t>
+  </si>
+  <si>
+    <t>f-solar</t>
+  </si>
+  <si>
+    <t>f-v2</t>
+  </si>
+  <si>
+    <t>f-claemit</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715201533/http://dewey.rug.ac.be/barn/quix/f-spaceex.mov</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715180121/http://dewey.rug.ac.be/barn/quix/f-advances.mov</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104738/http://dewey.rug.ac.be/barn/quix/f-news.mov</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19980111051944/http://dewey.rug.ac.be/barn/quix/f-pong.mov</t>
+  </si>
+  <si>
+    <t>fmt migrate</t>
+  </si>
+  <si>
+    <t>HTML fixes</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715175954/http://dewey.rug.ac.be/barn/quix/f-winterwalk.mov</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715175954/http://dewey.rug.ac.be/barn/quix/f-goodegg.mov</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715175954/http://dewey.rug.ac.be/barn/quix/f-bird.mov</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715175954/http://dewey.rug.ac.be/barn/quix/f-andove.mov</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715175954/http://dewey.rug.ac.be/barn/quix/f-tartaar.mov</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715192412/http://dewey.rug.ac.be/barn/quix/f-hammer.mov</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715192412/http://dewey.rug.ac.be/barn/quix/f-traffic.mov</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715192412/http://dewey.rug.ac.be/barn/quix/f-solar.mov</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715201553/http://dewey.rug.ac.be/barn/quix/f-v2.mov</t>
+  </si>
+  <si>
+    <t>from CD+ track of Unploughed CD</t>
+  </si>
+  <si>
+    <t>Memento</t>
+  </si>
+  <si>
+    <t>.mov file</t>
+  </si>
+  <si>
+    <t>.mp2 file</t>
+  </si>
+  <si>
+    <t>yfclf01</t>
+  </si>
+  <si>
+    <t>yfclf02</t>
+  </si>
+  <si>
+    <t>yfclf03</t>
+  </si>
+  <si>
+    <t>yfclf04</t>
+  </si>
+  <si>
+    <t>yfclf05</t>
+  </si>
+  <si>
+    <t>yfclf06</t>
+  </si>
+  <si>
+    <t>yfclf07</t>
+  </si>
+  <si>
+    <t>yfclf08</t>
+  </si>
+  <si>
+    <t>yfclf09</t>
+  </si>
+  <si>
+    <t>yfclf10</t>
+  </si>
+  <si>
+    <t>yfclf11</t>
+  </si>
+  <si>
+    <t>yfclf12</t>
+  </si>
+  <si>
+    <t>yfclf13</t>
+  </si>
+  <si>
+    <t>yfclf14</t>
+  </si>
+  <si>
+    <t>yfclf15</t>
+  </si>
+  <si>
+    <t>yfclf16</t>
+  </si>
+  <si>
+    <t>yfclf17</t>
+  </si>
+  <si>
+    <t>yfclf18</t>
+  </si>
+  <si>
+    <t>yfclf19</t>
+  </si>
+  <si>
+    <t>.jpeg file</t>
+  </si>
+  <si>
+    <t>b-advances1</t>
+  </si>
+  <si>
+    <t>b-advances2</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715192258/http://dewey.rug.ac.be/barn/pix/b-advances2.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715192335/http://dewey.rug.ac.be/barn/pix/b-advances1.jpeg</t>
+  </si>
+  <si>
+    <t>b-hands1</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104446/http://dewey.rug.ac.be/barn/pix/b-hands1.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104505/http://dewey.rug.ac.be/barn/pix/b-hands2.jpeg</t>
+  </si>
+  <si>
+    <t>b-hands2</t>
+  </si>
+  <si>
+    <t>b-sprouts1</t>
+  </si>
+  <si>
+    <t>b-sprouts2</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104523/http://dewey.rug.ac.be/barn/pix/b-sprouts1.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104542/http://dewey.rug.ac.be/barn/pix/b-sprouts2.jpeg</t>
+  </si>
+  <si>
+    <t>b-balls1</t>
+  </si>
+  <si>
+    <t>b-balls2</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719104659/http://dewey.rug.ac.be/barn/pix/b-balls2.jpeg</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>b-cables</t>
+  </si>
+  <si>
+    <t>b-piet</t>
+  </si>
+  <si>
+    <t>b-neckprom</t>
+  </si>
+  <si>
+    <t>b-neck1</t>
+  </si>
+  <si>
+    <t>b-bert</t>
+  </si>
+  <si>
+    <t>b-asbach</t>
+  </si>
+  <si>
+    <t>b-markest</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719110058/http://dewey.rug.ac.be/barn/pix/b-cables.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719110145/http://dewey.rug.ac.be/barn/pix/b-piet.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719111652/http://dewey.rug.ac.be/barn/pix/b-neckprom.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719111722/http://dewey.rug.ac.be/barn/pix/b-neck1.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719112439/http://dewey.rug.ac.be/barn/pix/b-bert.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105030/http://dewey.rug.ac.be/barn/pix/b-asbach.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105918/http://dewey.rug.ac.be/barn/pix/b-markest.jpeg</t>
+  </si>
+  <si>
+    <t>b-claemit1</t>
+  </si>
+  <si>
+    <t>b-claemit2</t>
+  </si>
+  <si>
+    <t>b-claemit3</t>
+  </si>
+  <si>
+    <t>b-claemit4</t>
+  </si>
+  <si>
+    <t>b-jap</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719114654/http://dewey.rug.ac.be/barn/pix/b-claemit1.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19980508004432/http://dewey.rug.ac.be/barn/pix/b-jap.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19980508004956/http://dewey.rug.ac.be/barn/pix/b-claemit2.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719115116/http://dewey.rug.ac.be/barn/pix/b-claemit3.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719115255/http://dewey.rug.ac.be/barn/pix/b-claemit4.jpeg</t>
+  </si>
+  <si>
+    <t>b-logo</t>
+  </si>
+  <si>
+    <t>b-flowers</t>
+  </si>
+  <si>
+    <t>b-nefertiti</t>
+  </si>
+  <si>
+    <t>b-flamingo</t>
+  </si>
+  <si>
+    <t>b-news1</t>
+  </si>
+  <si>
+    <t>b-news2</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19980508004017/http://dewey.rug.ac.be/barn/pix/b-logo.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719112829/http://dewey.rug.ac.be/barn/pix/b-flowers.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719114317/http://dewey.rug.ac.be/barn/pix/b-nefertiti.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719114351/http://dewey.rug.ac.be/barn/pix/b-flamingo.jpeg</t>
+  </si>
+  <si>
+    <t>b-asbak</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719114523/http://dewey.rug.ac.be/barn/pix/b-asbak.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719114414/http://dewey.rug.ac.be/barn/pix/b-news1.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719114429/http://dewey.rug.ac.be/barn/pix/b-news2.jpeg</t>
+  </si>
+  <si>
+    <t>b-stelling</t>
+  </si>
+  <si>
+    <t>b-ping</t>
+  </si>
+  <si>
+    <t>b-livor</t>
+  </si>
+  <si>
+    <t>b-dopplor</t>
+  </si>
+  <si>
+    <t>b-slidor</t>
+  </si>
+  <si>
+    <t>b-tx81z</t>
+  </si>
+  <si>
+    <t>b-tg100</t>
+  </si>
+  <si>
+    <t>b-waldorf</t>
+  </si>
+  <si>
+    <t>b-art</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105907/http://dewey.rug.ac.be/barn/pix/b-stelling.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715180438/http://dewey.rug.ac.be/barn/pix/b-ping.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105206/http://dewey.rug.ac.be/barn/pix/b-livor.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105256/http://dewey.rug.ac.be/barn/pix/b-dopplor.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105931/http://dewey.rug.ac.be/barn/pix/b-slidor.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105338/http://dewey.rug.ac.be/barn/pix/b-tx81z.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105543/http://dewey.rug.ac.be/barn/pix/b-tg100.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105431/http://dewey.rug.ac.be/barn/pix/b-waldorf.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105322/http://dewey.rug.ac.be/barn/pix/b-art.jpeg</t>
+  </si>
+  <si>
+    <t>b-guy</t>
+  </si>
+  <si>
+    <t>b-herbert</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719115743/http://dewey.rug.ac.be/barn/pix/b-herbert.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719115805/http://dewey.rug.ac.be/barn/pix/b-guy.jpeg</t>
+  </si>
+  <si>
+    <t>b-cdslidor</t>
+  </si>
+  <si>
+    <t>b-pong</t>
+  </si>
+  <si>
+    <t>b-assignor</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105232/http://dewey.rug.ac.be/barn/pix/b-cdslidor.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105623/http://dewey.rug.ac.be/barn/pix/b-pong.jpeg</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719105703/http://dewey.rug.ac.be/barn/pix/b-assignor.jpeg</t>
+  </si>
+  <si>
+    <t>b-daf</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970715192512/http://dewey.rug.ac.be/barn/pix/b-daf.jpeg</t>
+  </si>
+  <si>
+    <t>b-hurt</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719115705/http://dewey.rug.ac.be/barn/pix/b-hurt.jpeg</t>
+  </si>
+  <si>
+    <t>b-bird1</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/19970719115610/http://dewey.rug.ac.be/barn/pix/b-bird1.jpeg</t>
+  </si>
+  <si>
+    <t>\barn\tex\</t>
+  </si>
+  <si>
+    <t>\barn\quix\</t>
+  </si>
+  <si>
+    <t>\barn\vox\</t>
+  </si>
+  <si>
+    <t>\barn\pix\</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>.html file</t>
+  </si>
+  <si>
+    <t>missing, replaced by mp3 fragment from Unploughed CD, probably reflecting original content</t>
+  </si>
+  <si>
+    <t>missing, replaced by mp3 fragment from Unploughed CD, probably not reflecting original content</t>
+  </si>
+  <si>
+    <t>missing, made copy of b-balls2</t>
+  </si>
+  <si>
+    <t>claemvox1</t>
+  </si>
+  <si>
+    <t>claemvox2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -319,6 +784,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -345,9 +818,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -663,264 +1145,1761 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C76494D-2E19-FC47-898C-1DF4C006E5EB}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="97" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="86.6640625" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
+      <c r="B37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>242</v>
+      </c>
+      <c r="B64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
+        <v>239</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" t="s">
+        <v>239</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" t="s">
+        <v>239</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" t="s">
+        <v>155</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>162</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" t="s">
+        <v>171</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>174</v>
+      </c>
+      <c r="B104" t="s">
+        <v>179</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>175</v>
+      </c>
+      <c r="B105" t="s">
+        <v>181</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>176</v>
+      </c>
+      <c r="B106" t="s">
+        <v>182</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>177</v>
+      </c>
+      <c r="B107" t="s">
+        <v>183</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" t="s">
+        <v>180</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>184</v>
+      </c>
+      <c r="B109" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" t="s">
+        <v>192</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>187</v>
+      </c>
+      <c r="B112" t="s">
+        <v>193</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" t="s">
+        <v>195</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" t="s">
+        <v>207</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" t="s">
+        <v>208</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118" t="s">
+        <v>209</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>201</v>
+      </c>
+      <c r="B119" t="s">
+        <v>210</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>202</v>
+      </c>
+      <c r="B120" t="s">
+        <v>211</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>203</v>
+      </c>
+      <c r="B121" t="s">
+        <v>212</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>204</v>
+      </c>
+      <c r="B122" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>205</v>
+      </c>
+      <c r="B123" t="s">
+        <v>214</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" t="s">
+        <v>215</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>216</v>
+      </c>
+      <c r="B125" t="s">
+        <v>219</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" t="s">
+        <v>218</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>221</v>
+      </c>
+      <c r="B128" t="s">
+        <v>224</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>222</v>
+      </c>
+      <c r="B129" t="s">
+        <v>225</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>226</v>
+      </c>
+      <c r="B130" t="s">
+        <v>227</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>228</v>
+      </c>
+      <c r="B131" t="s">
+        <v>229</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>230</v>
+      </c>
+      <c r="B132" t="s">
+        <v>231</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E132" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1" xr:uid="{9049B73A-964B-954C-A99D-C9F3FE8B8703}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{F3252B96-52B0-CF47-AC7D-300848755EA1}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{E94C0501-F03C-7D43-91CC-79ACE9E0A4EA}"/>
-    <hyperlink ref="B25" r:id="rId4" xr:uid="{02A972B7-FD1A-F645-8015-0CC06D7807DE}"/>
-    <hyperlink ref="B16" r:id="rId5" xr:uid="{3840ED42-BDD3-4B4B-B425-754C6479CB6A}"/>
+    <hyperlink ref="B36" r:id="rId1" xr:uid="{9049B73A-964B-954C-A99D-C9F3FE8B8703}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{F3252B96-52B0-CF47-AC7D-300848755EA1}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{E94C0501-F03C-7D43-91CC-79ACE9E0A4EA}"/>
+    <hyperlink ref="B27" r:id="rId4" xr:uid="{02A972B7-FD1A-F645-8015-0CC06D7807DE}"/>
+    <hyperlink ref="B18" r:id="rId5" xr:uid="{3840ED42-BDD3-4B4B-B425-754C6479CB6A}"/>
+    <hyperlink ref="B31" r:id="rId6" xr:uid="{8C682A53-796D-2E45-89FD-C235FFAE2D0B}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{B5F10F27-F338-4E4F-9030-E1AEFCE432C8}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{2E9620BE-6981-A145-BD7E-46D80E5B75F7}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{41A67CEA-5520-5F44-82F8-06EFA1A835C7}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{B2BC6106-16FF-4146-9185-5B1324D564B3}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{D7D55759-2A72-674C-AA8E-D00D6E27F36E}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{A606E593-DD06-F543-8EE8-683C6DC52545}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{41F0B7CA-CCD9-EF4B-9125-ECFB5893CCD5}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{7E4225B5-7553-064B-84A4-280C51FE1415}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{C6E78D5F-A448-424F-8FDA-57789E5DE36A}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{65FF749E-5F03-3143-A7AD-59467A4E8F21}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{9AB06FFB-C710-5746-9D07-3A134D9FE87F}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{D7CE3597-C345-3A4E-82DF-FF73946F7DE0}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{F324C3F3-7281-F147-879A-50A9773843B7}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{C91E54F7-ADCA-AC4B-86F2-1E458A103821}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{1412BF4C-B9D2-3842-8B14-51FF1204A21C}"/>
+    <hyperlink ref="B25" r:id="rId22" xr:uid="{D927778B-A7C6-E84B-A15B-809FF5E0B07D}"/>
+    <hyperlink ref="B26" r:id="rId23" xr:uid="{D068A9EA-C0D4-9147-9CD6-161FE620931A}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{CD1ADE2D-AF5F-AB4A-B034-03E17C6AA9AF}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{FC832914-C124-3341-B682-670716BA6C03}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{C511E05D-01D5-9740-B6B1-421C6E15E493}"/>
+    <hyperlink ref="B35" r:id="rId27" xr:uid="{DF4A5943-D6AB-0943-B1A9-AB12D8BD6AF3}"/>
+    <hyperlink ref="B37" r:id="rId28" xr:uid="{83FD534E-AA9A-8547-A57B-FEB6C45FCCDA}"/>
+    <hyperlink ref="B96" r:id="rId29" xr:uid="{30B9903C-C7C9-434A-A86E-4687E9A35B24}"/>
+    <hyperlink ref="B97" r:id="rId30" xr:uid="{9D179D92-B638-984B-9C33-36948400279C}"/>
+    <hyperlink ref="B98" r:id="rId31" xr:uid="{67E96439-51F4-DD43-917F-1CFC3E3A632A}"/>
+    <hyperlink ref="B99" r:id="rId32" xr:uid="{174A8191-5656-794E-9321-A68562E114E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -931,7 +2910,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,36 +2923,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +2965,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,92 +2976,92 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
